--- a/datas/test.xlsx
+++ b/datas/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
     <t>我是sheet1</t>
   </si>
   <si>
-    <t>1咯</t>
+    <t>1咯？？</t>
   </si>
   <si>
-    <t>我是sheet2</t>
+    <t>我是sheet2??</t>
   </si>
   <si>
     <t>2咯</t>
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,8 +68,76 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +158,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -98,113 +181,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,7 +219,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00DB00"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +279,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,37 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,42 +370,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +428,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -453,7 +486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,21 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -495,30 +513,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -549,140 +543,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1033,8 +1028,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1043,18 +1038,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1070,8 +1065,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1081,18 +1076,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
